--- a/StatsAssignment#1/2012Names.xlsx
+++ b/StatsAssignment#1/2012Names.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\SMC\Teaching\Spring 2019\BUSAD 40\Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevorcardoza/Documents/GitHub/Statistics/StatsAssignment#1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C0C821-D4C7-465C-8290-1608F6388F27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13290B47-6F28-6A4F-B490-03B275CF0017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$C$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$D$1:$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$D$3:$J$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>Smith</t>
   </si>
@@ -41,6 +56,15 @@
   </si>
   <si>
     <t>Miller</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -84,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +128,1822 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relative Freq</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Brown</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Smith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Williams</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2EB-5A47-BE3F-77C2537D45D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="234772768"/>
+        <c:axId val="281294416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="234772768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="281294416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="281294416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234772768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Freq</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Brown</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Smith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Williams</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95D7-F94A-8305-1A2EF14B6A51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73691C6C-62F7-AF48-A6F3-80C7C060C48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF208FA-D54D-D444-B8B3-382558E712BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,269 +2267,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(A2:A51,D1)</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(A2:A51,E1)</f>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(A2:A51,F1)</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(A2:A51,G1)</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(A2:A51,H1)</f>
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(A2:A51,I1)</f>
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f>SUM(D2:I2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <f>D2/J2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f>E2/J2</f>
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="3">
+        <f>F2/J2</f>
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="3">
+        <f>G2/J2</f>
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="3">
+        <f>H2/J2</f>
+        <v>0.16</v>
+      </c>
+      <c r="I3" s="3">
+        <f>I2/J2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <f>SUM(D3:I3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -697,5 +2621,6 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>